--- a/metadata/ConcordanceTables_ANOVA.xlsx
+++ b/metadata/ConcordanceTables_ANOVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TimMcInerney/GitCode/MitoImputePrep/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B1534D1-7825-4B49-9A1D-3002BEAAD6C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E80AD19-E8E2-6E4D-BDB5-06BEDB9174F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="5" xr2:uid="{912AF37D-FA91-664E-A565-57F8EF0CC832}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="4" xr2:uid="{912AF37D-FA91-664E-A565-57F8EF0CC832}"/>
   </bookViews>
   <sheets>
     <sheet name="MCMC_diff_means" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
   <si>
     <t>contrast</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>&lt;.0001</t>
+  </si>
+  <si>
+    <t>kHAP</t>
   </si>
 </sst>
 </file>
@@ -845,14 +848,215 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223AC02A-7414-294E-8350-E8D031ABF7C3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.45014729999999997</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.3199819999999999E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>900</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.42424129999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.47605330000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>250</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.4318418</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.3199819999999999E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>900</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.40593580000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.45774779999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>500</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.42694599999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.3199819999999999E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>900</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.40104000000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.45285199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.41775610000000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.3199819999999999E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>900</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.39185009999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.4436621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.39016309999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.3199819999999999E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>900</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.3642571</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.41606910000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.2984598</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.3199819999999999E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>900</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.27255380000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.32436579999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.21020649999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.3199819999999999E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>900</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.18430050000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.2361125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.18133969999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.3199819999999999E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>900</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.15543370000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.2072457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.1767917</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.3199819999999999E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>900</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.15088570000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.20269770000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -861,7 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BB4AE-9330-064D-A775-D615E72A203C}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="A1:G37"/>
     </sheetView>
   </sheetViews>

--- a/metadata/ConcordanceTables_ANOVA.xlsx
+++ b/metadata/ConcordanceTables_ANOVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TimMcInerney/GitCode/MitoImputePrep/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E80AD19-E8E2-6E4D-BDB5-06BEDB9174F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E33D631-6FA1-C845-9EBD-64B73FB7BD79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="4" xr2:uid="{912AF37D-FA91-664E-A565-57F8EF0CC832}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" firstSheet="2" activeTab="9" xr2:uid="{912AF37D-FA91-664E-A565-57F8EF0CC832}"/>
   </bookViews>
   <sheets>
     <sheet name="MCMC_diff_means" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,12 @@
     <sheet name="MCMC_tot_cont" sheetId="4" r:id="rId4"/>
     <sheet name="kHAP_diff_means" sheetId="5" r:id="rId5"/>
     <sheet name="kHAP_diff_cont" sheetId="6" r:id="rId6"/>
+    <sheet name="kHAP_tot_means" sheetId="7" r:id="rId7"/>
+    <sheet name="kHAP_tot_cont" sheetId="8" r:id="rId8"/>
+    <sheet name="MAF_diff_means" sheetId="9" r:id="rId9"/>
+    <sheet name="MAF_diff_cont" sheetId="10" r:id="rId10"/>
+    <sheet name="MAF_tot_means" sheetId="11" r:id="rId11"/>
+    <sheet name="MAF_tot_cont" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="13">
   <si>
     <t>contrast</t>
   </si>
@@ -67,6 +73,9 @@
   <si>
     <t>kHAP</t>
   </si>
+  <si>
+    <t>MAF</t>
+  </si>
 </sst>
 </file>
 
@@ -101,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,6 +119,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -539,6 +554,317 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1D2F01-DFB3-4D4F-8147-B1BA98FF8551}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.1252787E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.9066719999999999E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>304</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.82550000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.7737730000000003E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.916087E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>304</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.9133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.9026560000000001E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.916087E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>304</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.58189999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA65D4FE-1E81-9A43-B7F3-CB2DE7B0D0A4}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.88584379999999996</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.066393E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>304</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.8648593</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.90682830000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.89763300000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.066393E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>304</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.87664850000000005</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.91861740000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.89365229999999996</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.0769000000000001E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>304</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.87246109999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.91484350000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347B7590-5D72-8043-8295-60D85FDBB7EA}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.1789182E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.508108E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>304</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.71450000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.8084829999999997E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.515555E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>304</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.9806989999999999E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.515555E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>304</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.9627</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61553266-2A20-9A44-B789-AE4310D007C9}">
   <dimension ref="A1:G7"/>
@@ -553,10 +879,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -724,7 +1050,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -836,12 +1162,177 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190F57C6-E5FF-FA49-BB9F-CA88ACC4031D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7.8144370000000001E-5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.346788E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>400</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.0867330000000003E-4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.346788E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>400</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.6423329999999993E-5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.346788E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>400</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.0085879999999999E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.346788E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>400</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5.860889E-5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.346788E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>400</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.422499E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.346788E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>400</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -850,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223AC02A-7414-294E-8350-E8D031ABF7C3}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
@@ -1072,10 +1563,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1926,4 +2417,1184 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE267E0-8AA5-CF40-BFAA-0C7884B0CF3F}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2">
+        <v>250</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.8522980000000002E-4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>900</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2">
+        <v>500</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.0356811000000002E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>900</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.8173904000000001E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>900</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.4790063000000004E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>900</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.99829999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.3511139599999997E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>900</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5.694</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.12402416249999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>900</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.6059999999999999</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.1330421124</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>900</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10.305</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.7641188700000003E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>900</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>250</v>
+      </c>
+      <c r="B10" s="2">
+        <v>500</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.3209109000000001E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>900</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>250</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.5321606000000001E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>900</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>250</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9.1937765000000005E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>900</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>250</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7.3225909800000002E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>900</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>250</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.1237389327</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>900</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9.5839999999999996</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>250</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.13275688259999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>900</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10.282</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>250</v>
+      </c>
+      <c r="B16" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4.7355959000000003E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>900</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3.6680000000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
+        <v>500</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5.8530715000000002E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>900</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
+        <v>500</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.1514687399999999E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>900</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.99339999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
+        <v>500</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7.5546820700000003E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>900</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5.851</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <v>500</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.1260598436</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>900</v>
+      </c>
+      <c r="F20" s="2">
+        <v>9.7639999999999993</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
+        <v>500</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.13507779349999999</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>900</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10.462</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <v>500</v>
+      </c>
+      <c r="B22" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4.9676869800000002E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>900</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3.8479999999999999</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5.6616158999999999E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>900</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.439</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6.9693749200000002E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>900</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5.3979999999999997</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.1202067721</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>900</v>
+      </c>
+      <c r="F25" s="2">
+        <v>9.31</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B26" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.12922472199999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>900</v>
+      </c>
+      <c r="F26" s="2">
+        <v>10.009</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B27" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4.3823798300000001E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>900</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
+        <v>2500</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6.4032133300000002E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>900</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4.9589999999999996</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
+        <v>2500</v>
+      </c>
+      <c r="B29" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.1145451562</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>900</v>
+      </c>
+      <c r="F29" s="2">
+        <v>8.8719999999999999</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <v>2500</v>
+      </c>
+      <c r="B30" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.1235631061</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>900</v>
+      </c>
+      <c r="F30" s="2">
+        <v>9.57</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <v>2500</v>
+      </c>
+      <c r="B31" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.8162182400000001E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>900</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.956</v>
+      </c>
+      <c r="G31" s="2">
+        <v>7.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5.0513022900000003E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>900</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3.9119999999999999</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B33" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5.9530972799999998E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>900</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4.6109999999999998</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B34" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2.5869950799999999E-2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>900</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2.004</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.54110000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B35" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C35" s="2">
+        <v>9.0179499000000007E-3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>900</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B36" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7.6382973699999995E-2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>900</v>
+      </c>
+      <c r="F36" s="2">
+        <v>5.9160000000000004</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <v>20000</v>
+      </c>
+      <c r="B37" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C37" s="2">
+        <v>8.5400923700000006E-2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.291103E-2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>900</v>
+      </c>
+      <c r="F37" s="2">
+        <v>6.6150000000000002</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C162F000-2541-CA4F-98B5-E3C0445B839D}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.89136649999999995</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9.1294779999999999E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>900</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.87344900000000003</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.90928410000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>250</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.89108129999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9.1294779999999999E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>900</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.87316380000000005</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.9089988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>500</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.89340220000000004</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.1294779999999999E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>900</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.8754847</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.91131969999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.88754909999999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.1294779999999999E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>900</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.86963159999999995</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.90546669999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>2500</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.88188750000000005</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.1294779999999999E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>900</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.86397000000000002</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.89980510000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.81785540000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.1294779999999999E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>900</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.79993780000000003</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.83577290000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.76734239999999998</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9.1294779999999999E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>900</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.7494248</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.78525990000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.75832440000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9.1294779999999999E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>900</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.74040689999999998</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.77624199999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>30000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.84372530000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.1294779999999999E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>900</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.82580779999999998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.86164289999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A632EE77-C164-0D47-9E89-B6CF6A0074F0}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1">
+      <c r="A2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.43496980000000002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.34822E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>304</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.40843960000000001</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.46150010000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1">
+      <c r="A3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.44622260000000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.34822E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>304</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.41969240000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.47275289999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1">
+      <c r="A4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.42719610000000002</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.361504E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>304</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.40040439999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.45398769999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/metadata/ConcordanceTables_ANOVA.xlsx
+++ b/metadata/ConcordanceTables_ANOVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TimMcInerney/GitCode/MitoImputePrep/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E33D631-6FA1-C845-9EBD-64B73FB7BD79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAFE08A-99BC-314B-B9B4-DDFCE9CDCB09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" firstSheet="2" activeTab="9" xr2:uid="{912AF37D-FA91-664E-A565-57F8EF0CC832}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" firstSheet="2" activeTab="11" xr2:uid="{912AF37D-FA91-664E-A565-57F8EF0CC832}"/>
   </bookViews>
   <sheets>
     <sheet name="MCMC_diff_means" sheetId="2" r:id="rId1"/>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1D2F01-DFB3-4D4F-8147-B1BA98FF8551}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -761,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347B7590-5D72-8043-8295-60D85FDBB7EA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1080,19 +1080,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.42669590000000002</v>
+        <v>0.89342169999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1.335955E-2</v>
+        <v>9.5232310000000001E-3</v>
       </c>
       <c r="D2" s="1">
         <v>400</v>
       </c>
       <c r="E2" s="1">
-        <v>0.40043220000000002</v>
+        <v>0.87469989999999997</v>
       </c>
       <c r="F2" s="1">
-        <v>0.45295960000000002</v>
+        <v>0.91214360000000005</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1100,19 +1100,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>0.42688350000000003</v>
+        <v>0.89342960000000005</v>
       </c>
       <c r="C3" s="1">
-        <v>1.335955E-2</v>
+        <v>9.5232310000000001E-3</v>
       </c>
       <c r="D3" s="1">
         <v>400</v>
       </c>
       <c r="E3" s="1">
-        <v>0.40061980000000003</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.45314719999999997</v>
+        <v>0.87470769999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.91215139999999995</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1120,19 +1120,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>0.42718440000000002</v>
+        <v>0.89373040000000004</v>
       </c>
       <c r="C4" s="1">
-        <v>1.335955E-2</v>
+        <v>9.5232310000000001E-3</v>
       </c>
       <c r="D4" s="1">
         <v>400</v>
       </c>
       <c r="E4" s="1">
-        <v>0.40092070000000002</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.45344810000000002</v>
+        <v>0.87500860000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.91245229999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1140,19 +1140,19 @@
         <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>0.42703200000000002</v>
+        <v>0.89348819999999995</v>
       </c>
       <c r="C5" s="1">
-        <v>1.335955E-2</v>
+        <v>9.5232310000000001E-3</v>
       </c>
       <c r="D5" s="1">
         <v>400</v>
       </c>
       <c r="E5" s="1">
-        <v>0.40076830000000002</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.45329570000000002</v>
+        <v>0.8747663</v>
+      </c>
+      <c r="F5">
+        <v>0.91220999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +3506,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
